--- a/rnaSample/rnaSample_H.BROWN_12.03.20.xlsx
+++ b/rnaSample/rnaSample_H.BROWN_12.03.20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/rnaSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C0FCC0B-7E3A-8047-A281-D45B6260BF45}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C488529F-0317-364D-9B02-55154F4A1DD3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{E6636F65-972B-5F45-A210-F4CC74603CEE}"/>
   </bookViews>
@@ -33,9 +33,6 @@
     <t>harvester</t>
   </si>
   <si>
-    <t>biosampleNumber</t>
-  </si>
-  <si>
     <t>rnaDate</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t>D.AGUSTINHO</t>
+  </si>
+  <si>
+    <t>bioSampleNumber</t>
   </si>
 </sst>
 </file>
@@ -415,7 +415,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:O1048576"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -428,433 +428,433 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5">
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7">
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8">
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9">
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10">
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11">
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12">
         <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13">
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F14">
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F15">
         <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16">
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17">
         <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18">
         <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19">
         <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
